--- a/M9MixR/M9MixR_InputTemplate.xlsx
+++ b/M9MixR/M9MixR_InputTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\MSc Leiden 2nd Year\##LabAst Works\Incubator\Maik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\MSc Leiden 2nd Year\##LabAst Works\Incubator\M9MixR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
   <si>
     <t>Custom Solutions</t>
   </si>
@@ -153,6 +154,24 @@
   </si>
   <si>
     <t>L-Lactate</t>
+  </si>
+  <si>
+    <t>Tube type</t>
+  </si>
+  <si>
+    <t>Available tube types</t>
+  </si>
+  <si>
+    <t>1.5 Eppendorf</t>
+  </si>
+  <si>
+    <t>15 Falcon</t>
+  </si>
+  <si>
+    <t>50 Falcon</t>
+  </si>
+  <si>
+    <t>Stock Volume (uL)</t>
   </si>
 </sst>
 </file>
@@ -237,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,6 +331,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,31 +637,34 @@
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
@@ -643,23 +677,29 @@
       <c r="D2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="16">
-        <v>30</v>
-      </c>
-      <c r="H2" s="16">
-        <v>30</v>
-      </c>
-      <c r="I2" s="16">
-        <v>30</v>
       </c>
       <c r="J2" s="16">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="16">
+        <v>30</v>
+      </c>
+      <c r="L2" s="16">
+        <v>30</v>
+      </c>
+      <c r="M2" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -672,20 +712,30 @@
       <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="H3" s="28">
-        <v>0</v>
-      </c>
-      <c r="I3" s="28">
-        <v>0.2</v>
+      <c r="E3" s="6">
+        <v>30000</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF((F3="1.5 Eppendorf")*AND(E3&gt;1500),"Volume Overload!",IF((F3="15 Falcon")*AND(E3&gt;15000),"Volume Overload!",IF(E3&gt;50000,"Volume Overload!","")))</f>
+        <v/>
       </c>
       <c r="J3" s="28">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="28">
+        <v>0</v>
+      </c>
+      <c r="L3" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="M3" s="28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -698,20 +748,30 @@
       <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3">
+      <c r="E4" s="10">
+        <v>800</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G28" si="0">IF((F4="1.5 Eppendorf")*AND(E4&gt;1500),"Volume Overload!",IF((F4="15 Falcon")*AND(E4&gt;15000),"Volume Overload!",IF(E4&gt;50000,"Volume Overload!","")))</f>
+        <v/>
+      </c>
+      <c r="J4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="K4" s="3">
         <v>1E-3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="L4" s="3">
         <v>1E-3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="M4" s="3">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -724,20 +784,30 @@
       <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="H5" s="28">
-        <v>1E-4</v>
-      </c>
-      <c r="I5" s="28">
-        <v>0</v>
+      <c r="E5" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J5" s="28">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="28">
+        <v>1E-4</v>
+      </c>
+      <c r="L5" s="28">
+        <v>0</v>
+      </c>
+      <c r="M5" s="28">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
@@ -750,20 +820,30 @@
       <c r="D6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="15">
+      <c r="E6" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="15">
         <v>0.35</v>
       </c>
-      <c r="H6" s="15">
+      <c r="K6" s="15">
         <v>0.35</v>
       </c>
-      <c r="I6" s="15">
+      <c r="L6" s="15">
         <v>0.35</v>
       </c>
-      <c r="J6" s="15">
+      <c r="M6" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -776,20 +856,30 @@
       <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="29">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="H7" s="29">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I7" s="29">
-        <v>2.5000000000000001E-3</v>
+      <c r="E7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J7" s="29">
         <v>2.5000000000000001E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="29">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="L7" s="29">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M7" s="29">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
@@ -802,20 +892,30 @@
       <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0.01</v>
+      <c r="E8" s="18">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J8" s="15">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>21</v>
       </c>
@@ -828,20 +928,30 @@
       <c r="D9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="28">
-        <v>1.8</v>
-      </c>
-      <c r="H9" s="28">
-        <v>1.8</v>
-      </c>
-      <c r="I9" s="28">
-        <v>1.8</v>
+      <c r="E9" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J9" s="28">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K9" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="L9" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="M9" s="28">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -854,20 +964,30 @@
       <c r="D10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.3</v>
+      <c r="E10" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J10" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
@@ -880,20 +1000,30 @@
       <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="28">
-        <v>0.8</v>
-      </c>
-      <c r="H11" s="28">
-        <v>0.8</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0.8</v>
+      <c r="E11" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J11" s="28">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="28">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
@@ -906,20 +1036,30 @@
       <c r="D12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.2</v>
+      <c r="E12" s="10">
+        <v>800</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J12" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>21</v>
       </c>
@@ -932,20 +1072,30 @@
       <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="28">
-        <v>1.5</v>
-      </c>
-      <c r="H13" s="28">
-        <v>1.5</v>
-      </c>
-      <c r="I13" s="28">
-        <v>1.5</v>
+      <c r="E13" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J13" s="28">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="L13" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M13" s="28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
@@ -958,20 +1108,30 @@
       <c r="D14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1.2</v>
+      <c r="E14" s="10">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J14" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K14" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -984,20 +1144,30 @@
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="28">
-        <v>0.5</v>
+      <c r="E15" s="6">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J15" s="28">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K15" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>21</v>
       </c>
@@ -1010,20 +1180,30 @@
       <c r="D16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1.1000000000000001</v>
+      <c r="E16" s="10">
+        <v>5000</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J16" s="3">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -1036,20 +1216,30 @@
       <c r="D17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="28">
-        <v>1.6</v>
-      </c>
-      <c r="H17" s="28">
-        <v>1.6</v>
-      </c>
-      <c r="I17" s="28">
-        <v>1.6</v>
+      <c r="E17" s="6">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J17" s="28">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K17" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="L17" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="M17" s="28">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>21</v>
       </c>
@@ -1062,20 +1252,30 @@
       <c r="D18" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2.1</v>
+      <c r="E18" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J18" s="3">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>21</v>
       </c>
@@ -1088,20 +1288,30 @@
       <c r="D19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="28">
-        <v>0.6</v>
-      </c>
-      <c r="H19" s="28">
-        <v>0.6</v>
-      </c>
-      <c r="I19" s="28">
-        <v>0.6</v>
+      <c r="E19" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J19" s="28">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="L19" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="M19" s="28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
@@ -1114,20 +1324,30 @@
       <c r="D20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.5</v>
+      <c r="E20" s="10">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J20" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -1140,20 +1360,30 @@
       <c r="D21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="28">
-        <v>1.7</v>
-      </c>
-      <c r="H21" s="28">
-        <v>1.7</v>
-      </c>
-      <c r="I21" s="28">
-        <v>1.7</v>
+      <c r="E21" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J21" s="28">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="28">
+        <v>1.7</v>
+      </c>
+      <c r="L21" s="28">
+        <v>1.7</v>
+      </c>
+      <c r="M21" s="28">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
@@ -1166,20 +1396,30 @@
       <c r="D22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1.4</v>
+      <c r="E22" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J22" s="3">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
@@ -1192,20 +1432,30 @@
       <c r="D23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="28">
-        <v>1</v>
-      </c>
-      <c r="H23" s="28">
-        <v>1</v>
-      </c>
-      <c r="I23" s="28">
-        <v>1</v>
+      <c r="E23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J23" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="28">
+        <v>1</v>
+      </c>
+      <c r="L23" s="28">
+        <v>1</v>
+      </c>
+      <c r="M23" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
@@ -1218,20 +1468,30 @@
       <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0.01</v>
+      <c r="E24" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J24" s="3">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
@@ -1244,20 +1504,30 @@
       <c r="D25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="28">
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="H25" s="28">
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="I25" s="28">
-        <v>0.80000000000000016</v>
+      <c r="E25" s="6">
+        <v>45000</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J25" s="28">
         <v>0.80000000000000016</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="28">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="L25" s="28">
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="M25" s="28">
+        <v>0.80000000000000016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>21</v>
       </c>
@@ -1270,20 +1540,30 @@
       <c r="D26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H26" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I26" s="15">
-        <v>1.1000000000000001</v>
+      <c r="E26" s="10">
+        <v>8000</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J26" s="15">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L26" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M26" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>40</v>
       </c>
@@ -1296,20 +1576,30 @@
       <c r="D27" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="28">
-        <v>3.2</v>
-      </c>
-      <c r="H27" s="28">
-        <v>3.2</v>
-      </c>
-      <c r="I27" s="28">
-        <v>0</v>
+      <c r="E27" s="21">
+        <v>4000</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="J27" s="28">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="28">
+        <v>3.2</v>
+      </c>
+      <c r="L27" s="28">
+        <v>0</v>
+      </c>
+      <c r="M27" s="28">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>40</v>
       </c>
@@ -1322,17 +1612,78 @@
       <c r="D28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="15">
+      <c r="E28" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J28" s="15">
         <v>9</v>
       </c>
-      <c r="H28" s="15">
+      <c r="K28" s="15">
         <v>9</v>
       </c>
-      <c r="I28" s="15">
+      <c r="L28" s="15">
         <v>9</v>
       </c>
-      <c r="J28" s="15">
+      <c r="M28" s="15">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F29" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F28</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
